--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.61</v>
+        <v>2.47</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.16</v>
+        <v>3.36</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.53</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:04</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.83</v>
+        <v>3.26</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.34</v>
+        <v>2.69</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-frederiksberg-alliancen-2000/fLdM47Ag/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-thisted-fc/bg3D6Tus/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.47</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 12:25</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.36</v>
+        <v>4.16</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>4.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 12:04</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.26</v>
+        <v>4.83</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.69</v>
+        <v>4.34</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 12:25</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-thisted-fc/bg3D6Tus/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-frederiksberg-alliancen-2000/fLdM47Ag/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.81</v>
+        <v>3.65</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.31</v>
+        <v>3</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.57</v>
+        <v>3.46</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.97</v>
+        <v>2.38</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>3.81</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.46</v>
+        <v>2.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>01/09/2023 23:41</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.61</v>
+        <v>3.34</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.43</v>
+        <v>3.56</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>02/09/2023 12:03</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>01/09/2023 23:41</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-frederiksberg-alliancen-2000/K2AsTsgB/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-hellerup/EP9oS18H/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.37</v>
+        <v>2.58</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 23:41</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.56</v>
+        <v>3.43</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 12:03</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.68</v>
+        <v>2.55</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 23:41</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-hellerup/EP9oS18H/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-frederiksberg-alliancen-2000/K2AsTsgB/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.21</v>
+        <v>2.81</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4.52</v>
+        <v>2.48</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:40</t>
+          <t>02/09/2023 14:44</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.95</v>
+        <v>3.81</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.95</v>
+        <v>3.64</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:51</t>
+          <t>02/09/2023 14:42</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.6</v>
+        <v>2.21</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.68</v>
+        <v>2.54</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:51</t>
+          <t>02/09/2023 14:44</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-aarhus-fremad/C0kMLaoo/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-middelfart/Ai3fQuwU/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.81</v>
+        <v>3.69</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.48</v>
+        <v>4.04</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:44</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.64</v>
+        <v>4.18</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:42</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.21</v>
+        <v>1.71</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.54</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:44</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-middelfart/Ai3fQuwU/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-esbjerg/SSDkRLNN/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.69</v>
+        <v>4.21</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.04</v>
+        <v>4.52</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:40</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.18</v>
+        <v>3.95</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:51</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:51</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-esbjerg/SSDkRLNN/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-aarhus-fremad/C0kMLaoo/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:19</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.56</v>
+        <v>3.39</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:32</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:19</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:32</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
         </is>
       </c>
     </row>
@@ -4318,6 +4318,98 @@
       <c r="V42" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-fremad-amager/ziniqfq9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-hellerup/4WZ3thTR/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.97</v>
+        <v>2.38</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.65</v>
+        <v>3.81</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.46</v>
+        <v>2.57</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.81</v>
+        <v>3.65</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>3</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.57</v>
+        <v>3.46</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>3.13</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25/08/2023 17:25</t>
+          <t>25/08/2023 18:44</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.81</v>
+        <v>2.06</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.13</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,32 +2360,32 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>25/08/2023 17:25</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>25/08/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>25/08/2023 18:44</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>25/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>25/08/2023 18:44</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.37</v>
+        <v>2.58</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 23:41</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.56</v>
+        <v>3.43</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>02/09/2023 12:03</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.68</v>
+        <v>2.55</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 23:41</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-hellerup/EP9oS18H/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-frederiksberg-alliancen-2000/K2AsTsgB/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>01/09/2023 23:41</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.61</v>
+        <v>3.34</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.43</v>
+        <v>3.56</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>02/09/2023 12:03</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>01/09/2023 23:41</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-frederiksberg-alliancen-2000/K2AsTsgB/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-hellerup/EP9oS18H/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.81</v>
+        <v>4.21</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.48</v>
+        <v>4.52</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:44</t>
+          <t>02/09/2023 14:40</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.81</v>
+        <v>3.95</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.64</v>
+        <v>3.95</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:42</t>
+          <t>02/09/2023 14:51</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.21</v>
+        <v>1.6</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.54</v>
+        <v>1.68</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 14:44</t>
+          <t>02/09/2023 14:51</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-middelfart/Ai3fQuwU/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-aarhus-fremad/C0kMLaoo/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3.69</v>
+        <v>2.81</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4.04</v>
+        <v>2.48</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:44</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.86</v>
+        <v>3.81</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.18</v>
+        <v>3.64</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:42</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.71</v>
+        <v>2.21</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>2.54</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:44</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-esbjerg/SSDkRLNN/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-middelfart/Ai3fQuwU/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>4.21</v>
+        <v>3.69</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.52</v>
+        <v>4.04</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:40</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.95</v>
+        <v>4.18</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:51</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:51</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-aarhus-fremad/C0kMLaoo/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-esbjerg/SSDkRLNN/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:19</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.39</v>
+        <v>3.56</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 18:32</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.77</v>
+        <v>3.02</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:19</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:32</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,466 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-hellerup/4WZ3thTR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:49</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Thisted FC</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Nykobing</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:37</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:37</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:23</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-nykobing/thRVyCyq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Brabrand</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:46</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:15</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:15</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-brabrand/E5Pwzj6e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>F. Amager</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:35</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:38</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:38</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-skive/zFQZzWjk/</t>
         </is>
       </c>
     </row>
